--- a/classification-record/session-all-models-data.xlsx
+++ b/classification-record/session-all-models-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -53,25 +53,118 @@
     <t>Alex</t>
   </si>
   <si>
-    <t>Best Vape Mods and Box Mods in 2020: Everything You Need to Know</t>
-  </si>
-  <si>
-    <t>APSVS85U_zg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=APSVS85U_zg</t>
-  </si>
-  <si>
-    <t>GmG Creation</t>
+    <t>V2 Cigs Red Tobacco Disposable Electronic Cigarette Review</t>
+  </si>
+  <si>
+    <t>EeNICLmK-FE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EeNICLmK-FE</t>
+  </si>
+  <si>
+    <t>MikeVapes</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>How to Clean Your Vape Mods/Pods Easily?</t>
+  </si>
+  <si>
+    <t>6V7tULxwueU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6V7tULxwueU</t>
+  </si>
+  <si>
+    <t>Vaffle</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>2</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Times It Looked Like the World Would End</t>
+  </si>
+  <si>
+    <t>_ixX8xyoWkI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_ixX8xyoWkI</t>
+  </si>
+  <si>
+    <t>The Infographics Show</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Trying Twisted Tongue Vape Juices! JUICE WEEK Episode #3</t>
+  </si>
+  <si>
+    <t>MgQBPUyNuOE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MgQBPUyNuOE</t>
+  </si>
+  <si>
+    <t>Ryan Hall</t>
+  </si>
+  <si>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>dosist- calm CBD Disposable Vape Pen Review</t>
+  </si>
+  <si>
+    <t>emBCV2IP-eQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=emBCV2IP-eQ</t>
+  </si>
+  <si>
+    <t>Kimo's Cannabis Channel</t>
+  </si>
+  <si>
+    <t>The BEST VAPES of 2019!</t>
+  </si>
+  <si>
+    <t>IolLQEx0xtg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IolLQEx0xtg</t>
+  </si>
+  <si>
+    <t>DashVapes</t>
+  </si>
+  <si>
+    <t>3 4</t>
+  </si>
+  <si>
+    <t>R-Pod Mods - Dave's Canvas Porch Mod - Live Interview</t>
+  </si>
+  <si>
+    <t>zoiIic8agBc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zoiIic8agBc</t>
+  </si>
+  <si>
+    <t>John Marucci</t>
   </si>
 </sst>
 </file>
@@ -424,7 +517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,10 +568,10 @@
         <v>11</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44141.67585959334</v>
+        <v>44141.69078601286</v>
       </c>
       <c r="D2" t="n">
-        <v>2642</v>
+        <v>3309</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -496,13 +589,241 @@
         <v>16</v>
       </c>
       <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>18</v>
       </c>
-      <c r="L2" t="s">
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>44141.69218841406</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3127</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>44141.69292951011</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1828</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>44141.71022107328</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2817</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>44141.7118740751</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3373</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" t="s">
         <v>17</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>44141.7131035272</v>
+      </c>
+      <c r="D7" t="n">
+        <v>136</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>44141.7136153304</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1270</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/classification-record/session-all-models-data.xlsx
+++ b/classification-record/session-all-models-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -53,118 +53,151 @@
     <t>Alex</t>
   </si>
   <si>
-    <t>V2 Cigs Red Tobacco Disposable Electronic Cigarette Review</t>
-  </si>
-  <si>
-    <t>EeNICLmK-FE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EeNICLmK-FE</t>
-  </si>
-  <si>
-    <t>MikeVapes</t>
+    <t>TOP 10 BEST VAPE MODS FOR 2020 - VAPING INSIDER</t>
+  </si>
+  <si>
+    <t>BXPChPavmng</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BXPChPavmng</t>
+  </si>
+  <si>
+    <t>Vaping Insider</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>E-Cigarette Update: What to Do about Kids and Vaping?</t>
+  </si>
+  <si>
+    <t>Gqk8tiEHI7A</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Gqk8tiEHI7A</t>
+  </si>
+  <si>
+    <t>Healthcare Triage</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Michael Wolff predicts how Trump's presidency will end</t>
+  </si>
+  <si>
+    <t>uwab38_hINY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uwab38_hINY</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>RAW VIDEO: Police chase across Houston in morning rush hour ends in SWAT take down of suspect</t>
+  </si>
+  <si>
+    <t>S2MfSUaXwMw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=S2MfSUaXwMw</t>
+  </si>
+  <si>
+    <t>ABC13 Houston</t>
+  </si>
+  <si>
+    <t>Sennheiser PC 373D Gaming Headset Review (7.1 surround sound)</t>
+  </si>
+  <si>
+    <t>iOVwp4yQq_A</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iOVwp4yQq_A</t>
+  </si>
+  <si>
+    <t>Rocket Jump Ninja</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>E-Cigarette - Won't the Vapor Condensate in My Lungs?</t>
+  </si>
+  <si>
+    <t>Wykl7Y3iH30</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Wykl7Y3iH30</t>
+  </si>
+  <si>
+    <t>Qorax Stan</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>How to Clean Your Vape Mods/Pods Easily?</t>
-  </si>
-  <si>
-    <t>6V7tULxwueU</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6V7tULxwueU</t>
-  </si>
-  <si>
-    <t>Vaffle</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Times It Looked Like the World Would End</t>
-  </si>
-  <si>
-    <t>_ixX8xyoWkI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_ixX8xyoWkI</t>
-  </si>
-  <si>
-    <t>The Infographics Show</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Trying Twisted Tongue Vape Juices! JUICE WEEK Episode #3</t>
-  </si>
-  <si>
-    <t>MgQBPUyNuOE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MgQBPUyNuOE</t>
-  </si>
-  <si>
-    <t>Ryan Hall</t>
-  </si>
-  <si>
-    <t>0 1</t>
-  </si>
-  <si>
-    <t>dosist- calm CBD Disposable Vape Pen Review</t>
-  </si>
-  <si>
-    <t>emBCV2IP-eQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=emBCV2IP-eQ</t>
+    <t>14-Year-Old Addicted To E-Cigarettes</t>
+  </si>
+  <si>
+    <t>6xc3Tc1adTE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6xc3Tc1adTE</t>
+  </si>
+  <si>
+    <t>Pop Trigger</t>
+  </si>
+  <si>
+    <t>San Rafael '71 Tangerine Dream Disposable Vape Review</t>
+  </si>
+  <si>
+    <t>att-qtXiljo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=att-qtXiljo</t>
   </si>
   <si>
     <t>Kimo's Cannabis Channel</t>
   </si>
   <si>
-    <t>The BEST VAPES of 2019!</t>
-  </si>
-  <si>
-    <t>IolLQEx0xtg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IolLQEx0xtg</t>
-  </si>
-  <si>
-    <t>DashVapes</t>
-  </si>
-  <si>
-    <t>3 4</t>
-  </si>
-  <si>
-    <t>R-Pod Mods - Dave's Canvas Porch Mod - Live Interview</t>
-  </si>
-  <si>
-    <t>zoiIic8agBc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=zoiIic8agBc</t>
-  </si>
-  <si>
-    <t>John Marucci</t>
+    <t>Developing Disposable Cameras from Early YouTube Days</t>
+  </si>
+  <si>
+    <t>I2b-euqf6pM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=I2b-euqf6pM</t>
+  </si>
+  <si>
+    <t>Tyler Oakley</t>
+  </si>
+  <si>
+    <t>VAPING VS CIGARETTES: Is The New Techy Trend Really Healthier For You? | David Nutt On London Real</t>
+  </si>
+  <si>
+    <t>cphX_KJjcbs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cphX_KJjcbs</t>
+  </si>
+  <si>
+    <t>London Real</t>
   </si>
 </sst>
 </file>
@@ -517,7 +550,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,10 +601,10 @@
         <v>11</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44141.69078601286</v>
+        <v>44141.73442485457</v>
       </c>
       <c r="D2" t="n">
-        <v>3309</v>
+        <v>773</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -589,13 +622,13 @@
         <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -606,34 +639,34 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44141.69218841406</v>
+        <v>44141.73524044117</v>
       </c>
       <c r="D3" t="n">
-        <v>3127</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -644,10 +677,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44141.69292951011</v>
+        <v>44141.73582527618</v>
       </c>
       <c r="D4" t="n">
-        <v>1828</v>
+        <v>2148</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>
@@ -665,13 +698,13 @@
         <v>16</v>
       </c>
       <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
         <v>30</v>
       </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
       <c r="L4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -682,34 +715,34 @@
         <v>11</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44141.71022107328</v>
+        <v>44141.73627592414</v>
       </c>
       <c r="D5" t="n">
-        <v>2817</v>
+        <v>3220</v>
       </c>
       <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>33</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
       </c>
       <c r="I5" t="s">
         <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -720,34 +753,34 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44141.7118740751</v>
+        <v>44141.73672065438</v>
       </c>
       <c r="D6" t="n">
-        <v>3373</v>
+        <v>3087</v>
       </c>
       <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
         <v>37</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>38</v>
       </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
         <v>25</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -758,34 +791,34 @@
         <v>11</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44141.7131035272</v>
+        <v>44141.73781819248</v>
       </c>
       <c r="D7" t="n">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>42</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>43</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
         <v>44</v>
       </c>
-      <c r="I7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" t="s">
-        <v>36</v>
-      </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -796,34 +829,148 @@
         <v>11</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44141.7136153304</v>
+        <v>44141.73886215874</v>
       </c>
       <c r="D8" t="n">
-        <v>1270</v>
+        <v>171</v>
       </c>
       <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
         <v>46</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>47</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>48</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>44141.73959946854</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2070</v>
+      </c>
+      <c r="E9" t="s">
         <v>49</v>
       </c>
-      <c r="I8" t="s">
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>44141.7401302031</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1574</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" t="s">
         <v>16</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>44141.7413936599</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1895</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" t="s">
         <v>30</v>
       </c>
-      <c r="K8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" t="s">
-        <v>24</v>
+      <c r="L11" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
